--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data2.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data2.xlsx
@@ -577,16 +577,16 @@
         <v>-30.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3068333115784035</v>
+        <v>0.30682086392172575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6761261031965609</v>
+        <v>0.6761274120340854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23168899261891365</v>
+        <v>0.23169076457548377</v>
       </c>
       <c r="E2" t="n">
-        <v>0.320847746027297</v>
+        <v>0.32084876167760007</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -600,16 +600,16 @@
         <v>-15.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3117965207902845</v>
+        <v>0.31178647262761866</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9091829578581577</v>
+        <v>-0.9091829576706647</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3622823340051082</v>
+        <v>-0.3622823662002469</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0871515461448486</v>
+        <v>0.08715150600308601</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -623,16 +623,16 @@
         <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3168395509067782</v>
+        <v>0.31683224932964577</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9091829578600101</v>
+        <v>-0.9091829576724478</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3622823340052528</v>
+        <v>-0.36228236620038606</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08715154614481334</v>
+        <v>0.08715150600305208</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -646,16 +646,16 @@
         <v>30.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3267532606255964</v>
+        <v>0.32675126621034173</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9091829578622354</v>
+        <v>-0.9091829576758544</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3622823340054265</v>
+        <v>-0.362282366200652</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08715154614477105</v>
+        <v>0.08715150600298731</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -669,16 +669,16 @@
         <v>90.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3459265598404842</v>
+        <v>0.345934491960849</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9091829578665412</v>
+        <v>-0.9091829576819813</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3622823340057626</v>
+        <v>-0.36228236620113025</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08715154614468915</v>
+        <v>0.08715150600287085</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -692,16 +692,16 @@
         <v>210.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.38190656869323764</v>
+        <v>0.38193198561433944</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9091829578755375</v>
+        <v>-0.90918295769203</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.36228233400646487</v>
+        <v>-0.3622823662019147</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0871515461445181</v>
+        <v>0.08715150600267975</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
